--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220412.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220412.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
   <si>
     <t>사이트</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>SSK</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>WM</t>
@@ -2729,6 +2732,12 @@
       <c r="F59" t="s">
         <v>210</v>
       </c>
+      <c r="G59" t="s">
+        <v>263</v>
+      </c>
+      <c r="H59" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
@@ -2854,7 +2863,7 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H64" t="s">
         <v>245</v>
@@ -2957,6 +2966,12 @@
       <c r="F68" t="s">
         <v>216</v>
       </c>
+      <c r="G68" t="s">
+        <v>263</v>
+      </c>
+      <c r="H68" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
@@ -3004,7 +3019,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H70" t="s">
         <v>245</v>
@@ -3082,7 +3097,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H73" t="s">
         <v>245</v>
@@ -3134,7 +3149,7 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H75" t="s">
         <v>245</v>
@@ -3264,7 +3279,7 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H80" t="s">
         <v>245</v>
@@ -3290,7 +3305,7 @@
         <v>89</v>
       </c>
       <c r="G81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H81" t="s">
         <v>245</v>
@@ -3368,7 +3383,7 @@
         <v>224</v>
       </c>
       <c r="G84" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H84" t="s">
         <v>245</v>
@@ -3394,7 +3409,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H85" t="s">
         <v>245</v>
@@ -3445,6 +3460,12 @@
       <c r="F87" t="s">
         <v>95</v>
       </c>
+      <c r="G87" t="s">
+        <v>247</v>
+      </c>
+      <c r="H87" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
@@ -3570,7 +3591,7 @@
         <v>230</v>
       </c>
       <c r="G92" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H92" t="s">
         <v>245</v>
@@ -3596,7 +3617,7 @@
         <v>231</v>
       </c>
       <c r="G93" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H93" t="s">
         <v>245</v>
@@ -3622,7 +3643,7 @@
         <v>232</v>
       </c>
       <c r="G94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H94" t="s">
         <v>245</v>
@@ -3674,7 +3695,7 @@
         <v>234</v>
       </c>
       <c r="G96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H96" t="s">
         <v>245</v>
@@ -3752,7 +3773,7 @@
         <v>235</v>
       </c>
       <c r="G99" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H99" t="s">
         <v>245</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220412.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220412.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-12</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220412.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220412.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
   <si>
     <t>사이트</t>
   </si>
@@ -782,9 +782,6 @@
   </si>
   <si>
     <t>스윙</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>레시피뮤직</t>
@@ -1979,7 +1976,7 @@
         <v>193</v>
       </c>
       <c r="G30" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H30" t="s">
         <v>245</v>
@@ -2109,7 +2106,7 @@
         <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H35" t="s">
         <v>245</v>
@@ -2239,7 +2236,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H40" t="s">
         <v>245</v>
@@ -2291,10 +2288,10 @@
         <v>198</v>
       </c>
       <c r="G42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2317,7 +2314,7 @@
         <v>199</v>
       </c>
       <c r="G43" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H43" t="s">
         <v>245</v>
@@ -2343,7 +2340,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H44" t="s">
         <v>245</v>
@@ -2421,7 +2418,7 @@
         <v>201</v>
       </c>
       <c r="G47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H47" t="s">
         <v>245</v>
@@ -2473,7 +2470,7 @@
         <v>202</v>
       </c>
       <c r="G49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H49" t="s">
         <v>245</v>
@@ -2525,7 +2522,7 @@
         <v>204</v>
       </c>
       <c r="G51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H51" t="s">
         <v>245</v>
@@ -2655,10 +2652,10 @@
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H56" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2733,7 +2730,7 @@
         <v>210</v>
       </c>
       <c r="G59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H59" t="s">
         <v>245</v>
@@ -2863,7 +2860,7 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H64" t="s">
         <v>245</v>
@@ -2967,7 +2964,7 @@
         <v>216</v>
       </c>
       <c r="G68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H68" t="s">
         <v>245</v>
@@ -3019,7 +3016,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H70" t="s">
         <v>245</v>
@@ -3071,7 +3068,7 @@
         <v>191</v>
       </c>
       <c r="G72" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H72" t="s">
         <v>245</v>
@@ -3097,7 +3094,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H73" t="s">
         <v>245</v>
@@ -3149,7 +3146,7 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H75" t="s">
         <v>245</v>
@@ -3201,10 +3198,10 @@
         <v>221</v>
       </c>
       <c r="G77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3279,7 +3276,7 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H80" t="s">
         <v>245</v>
@@ -3305,7 +3302,7 @@
         <v>89</v>
       </c>
       <c r="G81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H81" t="s">
         <v>245</v>
@@ -3331,7 +3328,7 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H82" t="s">
         <v>245</v>
@@ -3383,7 +3380,7 @@
         <v>224</v>
       </c>
       <c r="G84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H84" t="s">
         <v>245</v>
@@ -3409,7 +3406,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H85" t="s">
         <v>245</v>
@@ -3591,7 +3588,7 @@
         <v>230</v>
       </c>
       <c r="G92" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H92" t="s">
         <v>245</v>
@@ -3617,7 +3614,7 @@
         <v>231</v>
       </c>
       <c r="G93" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H93" t="s">
         <v>245</v>
@@ -3643,7 +3640,7 @@
         <v>232</v>
       </c>
       <c r="G94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H94" t="s">
         <v>245</v>
@@ -3695,7 +3692,7 @@
         <v>234</v>
       </c>
       <c r="G96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H96" t="s">
         <v>245</v>
@@ -3773,7 +3770,7 @@
         <v>235</v>
       </c>
       <c r="G99" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H99" t="s">
         <v>245</v>
